--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.38398133333333</v>
+        <v>1.065782333333333</v>
       </c>
       <c r="N2">
-        <v>64.151944</v>
+        <v>3.197347</v>
       </c>
       <c r="O2">
-        <v>0.864235283869651</v>
+        <v>0.1896668697192897</v>
       </c>
       <c r="P2">
-        <v>0.8642352838696511</v>
+        <v>0.1896668697192897</v>
       </c>
       <c r="Q2">
-        <v>3472.743535594456</v>
+        <v>214.6909189653463</v>
       </c>
       <c r="R2">
-        <v>31254.6918203501</v>
+        <v>1932.218270688116</v>
       </c>
       <c r="S2">
-        <v>0.3379481181173591</v>
+        <v>0.09167548589969532</v>
       </c>
       <c r="T2">
-        <v>0.3379481181173591</v>
+        <v>0.09167548589969535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.165155</v>
       </c>
       <c r="O3">
-        <v>0.002224917428963528</v>
+        <v>0.009797007290259483</v>
       </c>
       <c r="P3">
-        <v>0.002224917428963528</v>
+        <v>0.009797007290259485</v>
       </c>
       <c r="Q3">
-        <v>8.940351965345</v>
+        <v>11.08959356670445</v>
       </c>
       <c r="R3">
-        <v>80.46316768810499</v>
+        <v>99.80634210034</v>
       </c>
       <c r="S3">
-        <v>0.0008700254110408944</v>
+        <v>0.00473538370210183</v>
       </c>
       <c r="T3">
-        <v>0.0008700254110408946</v>
+        <v>0.004735383702101831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.074542333333333</v>
+        <v>1.641159333333333</v>
       </c>
       <c r="N4">
-        <v>3.223627</v>
+        <v>4.923477999999999</v>
       </c>
       <c r="O4">
-        <v>0.04342771273517247</v>
+        <v>0.2920610932725753</v>
       </c>
       <c r="P4">
-        <v>0.04342771273517248</v>
+        <v>0.2920610932725753</v>
       </c>
       <c r="Q4">
-        <v>174.504919530073</v>
+        <v>330.5947137816649</v>
       </c>
       <c r="R4">
-        <v>1570.544275770657</v>
+        <v>2975.352424034984</v>
       </c>
       <c r="S4">
-        <v>0.01698184981210091</v>
+        <v>0.1411677362408459</v>
       </c>
       <c r="T4">
-        <v>0.01698184981210091</v>
+        <v>0.141167736240846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H5">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.229665</v>
+        <v>2.857239666666667</v>
       </c>
       <c r="N5">
-        <v>6.688995</v>
+        <v>8.571719</v>
       </c>
       <c r="O5">
-        <v>0.09011208596621291</v>
+        <v>0.5084750297178755</v>
       </c>
       <c r="P5">
-        <v>0.09011208596621292</v>
+        <v>0.5084750297178756</v>
       </c>
       <c r="Q5">
-        <v>362.096028545505</v>
+        <v>575.5616231903258</v>
       </c>
       <c r="R5">
-        <v>3258.864256909545</v>
+        <v>5180.054608712932</v>
       </c>
       <c r="S5">
-        <v>0.0352371749225</v>
+        <v>0.2457714174659962</v>
       </c>
       <c r="T5">
-        <v>0.03523717492250001</v>
+        <v>0.2457714174659962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.38398133333333</v>
+        <v>1.065782333333333</v>
       </c>
       <c r="N6">
-        <v>64.151944</v>
+        <v>3.197347</v>
       </c>
       <c r="O6">
-        <v>0.864235283869651</v>
+        <v>0.1896668697192897</v>
       </c>
       <c r="P6">
-        <v>0.8642352838696511</v>
+        <v>0.1896668697192897</v>
       </c>
       <c r="Q6">
-        <v>1398.88370490786</v>
+        <v>69.72067155495756</v>
       </c>
       <c r="R6">
-        <v>12589.95334417074</v>
+        <v>627.4860439946181</v>
       </c>
       <c r="S6">
-        <v>0.1361315947155672</v>
+        <v>0.02977152677373138</v>
       </c>
       <c r="T6">
-        <v>0.1361315947155672</v>
+        <v>0.02977152677373139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.165155</v>
       </c>
       <c r="O7">
-        <v>0.002224917428963528</v>
+        <v>0.009797007290259483</v>
       </c>
       <c r="P7">
-        <v>0.002224917428963528</v>
+        <v>0.009797007290259485</v>
       </c>
       <c r="Q7">
         <v>3.601334953841111</v>
@@ -883,10 +883,10 @@
         <v>32.41201458457</v>
       </c>
       <c r="S7">
-        <v>0.0003504619209240097</v>
+        <v>0.001537811349320423</v>
       </c>
       <c r="T7">
-        <v>0.0003504619209240097</v>
+        <v>0.001537811349320423</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.074542333333333</v>
+        <v>1.641159333333333</v>
       </c>
       <c r="N8">
-        <v>3.223627</v>
+        <v>4.923477999999999</v>
       </c>
       <c r="O8">
-        <v>0.04342771273517247</v>
+        <v>0.2920610932725753</v>
       </c>
       <c r="P8">
-        <v>0.04342771273517248</v>
+        <v>0.2920610932725753</v>
       </c>
       <c r="Q8">
-        <v>70.29372766943756</v>
+        <v>107.3603185847702</v>
       </c>
       <c r="R8">
-        <v>632.643549024938</v>
+        <v>966.2428672629319</v>
       </c>
       <c r="S8">
-        <v>0.006840595263616012</v>
+        <v>0.045844087956946</v>
       </c>
       <c r="T8">
-        <v>0.006840595263616013</v>
+        <v>0.04584408795694601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.229665</v>
+        <v>2.857239666666667</v>
       </c>
       <c r="N9">
-        <v>6.688995</v>
+        <v>8.571719</v>
       </c>
       <c r="O9">
-        <v>0.09011208596621291</v>
+        <v>0.5084750297178755</v>
       </c>
       <c r="P9">
-        <v>0.09011208596621292</v>
+        <v>0.5084750297178756</v>
       </c>
       <c r="Q9">
-        <v>145.8588083895034</v>
+        <v>186.9130892143985</v>
       </c>
       <c r="R9">
-        <v>1312.72927550553</v>
+        <v>1682.217802929586</v>
       </c>
       <c r="S9">
-        <v>0.01419416933638761</v>
+        <v>0.07981403385538134</v>
       </c>
       <c r="T9">
-        <v>0.01419416933638762</v>
+        <v>0.07981403385538137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H10">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.38398133333333</v>
+        <v>1.065782333333333</v>
       </c>
       <c r="N10">
-        <v>64.151944</v>
+        <v>3.197347</v>
       </c>
       <c r="O10">
-        <v>0.864235283869651</v>
+        <v>0.1896668697192897</v>
       </c>
       <c r="P10">
-        <v>0.8642352838696511</v>
+        <v>0.1896668697192897</v>
       </c>
       <c r="Q10">
-        <v>1308.280253574109</v>
+        <v>64.41038621086979</v>
       </c>
       <c r="R10">
-        <v>11774.52228216698</v>
+        <v>579.6934758978281</v>
       </c>
       <c r="S10">
-        <v>0.1273145699167758</v>
+        <v>0.02750397399818125</v>
       </c>
       <c r="T10">
-        <v>0.1273145699167758</v>
+        <v>0.02750397399818126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H11">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.165155</v>
       </c>
       <c r="O11">
-        <v>0.002224917428963528</v>
+        <v>0.009797007290259483</v>
       </c>
       <c r="P11">
-        <v>0.002224917428963528</v>
+        <v>0.009797007290259485</v>
       </c>
       <c r="Q11">
-        <v>3.368082271661666</v>
+        <v>3.327038740135556</v>
       </c>
       <c r="R11">
-        <v>30.312740444955</v>
+        <v>29.94334866122</v>
       </c>
       <c r="S11">
-        <v>0.0003277630650538838</v>
+        <v>0.001420683718617224</v>
       </c>
       <c r="T11">
-        <v>0.0003277630650538839</v>
+        <v>0.001420683718617224</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H12">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.074542333333333</v>
+        <v>1.641159333333333</v>
       </c>
       <c r="N12">
-        <v>3.223627</v>
+        <v>4.923477999999999</v>
       </c>
       <c r="O12">
-        <v>0.04342771273517247</v>
+        <v>0.2920610932725753</v>
       </c>
       <c r="P12">
-        <v>0.04342771273517248</v>
+        <v>0.2920610932725753</v>
       </c>
       <c r="Q12">
-        <v>65.74091580121633</v>
+        <v>99.18320391271911</v>
       </c>
       <c r="R12">
-        <v>591.6682422109469</v>
+        <v>892.648835214472</v>
       </c>
       <c r="S12">
-        <v>0.00639754089255824</v>
+        <v>0.04235236616251456</v>
       </c>
       <c r="T12">
-        <v>0.006397540892558242</v>
+        <v>0.04235236616251457</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H13">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.229665</v>
+        <v>2.857239666666667</v>
       </c>
       <c r="N13">
-        <v>6.688995</v>
+        <v>8.571719</v>
       </c>
       <c r="O13">
-        <v>0.09011208596621291</v>
+        <v>0.5084750297178755</v>
       </c>
       <c r="P13">
-        <v>0.09011208596621292</v>
+        <v>0.5084750297178756</v>
       </c>
       <c r="Q13">
-        <v>136.411767580355</v>
+        <v>172.6768259063062</v>
       </c>
       <c r="R13">
-        <v>1227.705908223195</v>
+        <v>1554.091433156756</v>
       </c>
       <c r="S13">
-        <v>0.01327483578050984</v>
+        <v>0.07373498606679732</v>
       </c>
       <c r="T13">
-        <v>0.01327483578050985</v>
+        <v>0.07373498606679735</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H14">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.38398133333333</v>
+        <v>1.065782333333333</v>
       </c>
       <c r="N14">
-        <v>64.151944</v>
+        <v>3.197347</v>
       </c>
       <c r="O14">
-        <v>0.864235283869651</v>
+        <v>0.1896668697192897</v>
       </c>
       <c r="P14">
-        <v>0.8642352838696511</v>
+        <v>0.1896668697192897</v>
       </c>
       <c r="Q14">
-        <v>2700.945318510391</v>
+        <v>95.35079375043057</v>
       </c>
       <c r="R14">
-        <v>24308.50786659352</v>
+        <v>858.1571437538752</v>
       </c>
       <c r="S14">
-        <v>0.2628410011199489</v>
+        <v>0.04071588304768173</v>
       </c>
       <c r="T14">
-        <v>0.262841001119949</v>
+        <v>0.04071588304768175</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H15">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.165155</v>
       </c>
       <c r="O15">
-        <v>0.002224917428963528</v>
+        <v>0.009797007290259483</v>
       </c>
       <c r="P15">
-        <v>0.002224917428963528</v>
+        <v>0.009797007290259485</v>
       </c>
       <c r="Q15">
-        <v>6.953407742072223</v>
+        <v>4.925227177986112</v>
       </c>
       <c r="R15">
-        <v>62.58066967865</v>
+        <v>44.327044601875</v>
       </c>
       <c r="S15">
-        <v>0.0006766670319447399</v>
+        <v>0.002103128520220006</v>
       </c>
       <c r="T15">
-        <v>0.0006766670319447402</v>
+        <v>0.002103128520220007</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H16">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.074542333333333</v>
+        <v>1.641159333333333</v>
       </c>
       <c r="N16">
-        <v>3.223627</v>
+        <v>4.923477999999999</v>
       </c>
       <c r="O16">
-        <v>0.04342771273517247</v>
+        <v>0.2920610932725753</v>
       </c>
       <c r="P16">
-        <v>0.04342771273517248</v>
+        <v>0.2920610932725753</v>
       </c>
       <c r="Q16">
-        <v>135.7221576056011</v>
+        <v>146.8272087179722</v>
       </c>
       <c r="R16">
-        <v>1221.49941845041</v>
+        <v>1321.44487846175</v>
       </c>
       <c r="S16">
-        <v>0.01320772676689731</v>
+        <v>0.06269690291226881</v>
       </c>
       <c r="T16">
-        <v>0.01320772676689732</v>
+        <v>0.06269690291226883</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H17">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.229665</v>
+        <v>2.857239666666667</v>
       </c>
       <c r="N17">
-        <v>6.688995</v>
+        <v>8.571719</v>
       </c>
       <c r="O17">
-        <v>0.09011208596621291</v>
+        <v>0.5084750297178755</v>
       </c>
       <c r="P17">
-        <v>0.09011208596621292</v>
+        <v>0.5084750297178756</v>
       </c>
       <c r="Q17">
-        <v>281.6221708073167</v>
+        <v>255.6244944498195</v>
       </c>
       <c r="R17">
-        <v>2534.59953726585</v>
+        <v>2300.620450048375</v>
       </c>
       <c r="S17">
-        <v>0.02740590592681545</v>
+        <v>0.1091545923297007</v>
       </c>
       <c r="T17">
-        <v>0.02740590592681546</v>
+        <v>0.1091545923297007</v>
       </c>
     </row>
   </sheetData>
